--- a/SP_Sklad/TempLate/nakladnaDeboning.xlsx
+++ b/SP_Sklad/TempLate/nakladnaDeboning.xlsx
@@ -541,48 +541,96 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -600,54 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,11 +1019,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1040,11 +1038,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="5" t="e">
         <f>CONCATENATE("("&amp;WayBillList_MatName," )")</f>
         <v>#NAME?</v>
@@ -1055,17 +1053,17 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="e">
+      <c r="B2" s="36" t="e">
         <f>CONCATENATE("за рецептом ",WayBillList_RecipeName)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8"/>
@@ -1078,11 +1076,11 @@
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="61" t="e">
+      <c r="C4" s="44"/>
+      <c r="D4" s="47" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
@@ -1093,9 +1091,9 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="5"/>
@@ -1104,11 +1102,11 @@
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="52" t="e">
+      <c r="C6" s="38"/>
+      <c r="D6" s="32" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
@@ -1120,9 +1118,9 @@
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="53"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1131,11 +1129,11 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="52" t="e">
+      <c r="C8" s="38"/>
+      <c r="D8" s="32" t="e">
         <f>IF(D6 &lt; WayBillList_WriteOnDate,WayBillList_WriteOnDate,"")</f>
         <v>#NAME?</v>
       </c>
@@ -1147,9 +1145,9 @@
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1158,11 +1156,11 @@
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="39" t="e">
+      <c r="C10" s="38"/>
+      <c r="D10" s="34" t="e">
         <f>WayBillList_FROMWH</f>
         <v>#NAME?</v>
       </c>
@@ -1174,9 +1172,9 @@
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1185,11 +1183,11 @@
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="39" t="e">
+      <c r="C12" s="38"/>
+      <c r="D12" s="34" t="e">
         <f>WayBillList_AmountIn</f>
         <v>#NAME?</v>
       </c>
@@ -1201,9 +1199,9 @@
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1212,11 +1210,11 @@
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="39" t="e">
+      <c r="C14" s="38"/>
+      <c r="D14" s="34" t="e">
         <f>WayBillList_AmountOut</f>
         <v>#NAME?</v>
       </c>
@@ -1227,9 +1225,9 @@
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -1237,11 +1235,11 @@
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="37" t="e">
+      <c r="C16" s="38"/>
+      <c r="D16" s="55" t="e">
         <f>D14/D12</f>
         <v>#NAME?</v>
       </c>
@@ -1252,9 +1250,9 @@
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -1262,11 +1260,11 @@
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="55" t="e">
+      <c r="C18" s="38"/>
+      <c r="D18" s="41" t="e">
         <f>WayBillList_SUMMALL</f>
         <v>#NAME?</v>
       </c>
@@ -1278,9 +1276,9 @@
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="56"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1289,11 +1287,11 @@
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="39" t="e">
+      <c r="C20" s="38"/>
+      <c r="D20" s="34" t="e">
         <f>WayBillList_DocStatus</f>
         <v>#NAME?</v>
       </c>
@@ -1305,9 +1303,9 @@
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="40"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1337,47 +1335,47 @@
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="29" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="49" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="50"/>
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
         <v>1</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="51">
         <v>2</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="10">
         <v>3</v>
       </c>
@@ -1393,12 +1391,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="43" t="e">
+      <c r="B28" s="59" t="e">
         <f>MGRPD_GrpName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="21" t="e">
@@ -1417,11 +1415,11 @@
         <f>DeboningItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C29" s="45" t="e">
+      <c r="C29" s="61" t="e">
         <f>DeboningItems_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D29" s="46"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="11" t="e">
         <f>DeboningItems_MsrName</f>
         <v>#NAME?</v>
@@ -1449,10 +1447,10 @@
       <c r="I30"/>
     </row>
     <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="32"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="25" t="s">
         <v>22</v>
       </c>
@@ -1540,74 +1538,8 @@
     </row>
     <row r="44" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="I25:I26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G31:H31"/>
@@ -1624,6 +1556,21 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="I25:I26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/nakladnaDeboning.xlsx
+++ b/SP_Sklad/TempLate/nakladnaDeboning.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="3990" yWindow="2235" windowWidth="14175" windowHeight="7260"/>
@@ -18,7 +18,7 @@
     <definedName name="tpRange">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -97,13 +97,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$грн.-422]"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -541,6 +541,66 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -562,27 +622,9 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -606,48 +648,6 @@
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,7 +806,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -841,7 +840,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1017,13 +1015,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
@@ -1037,12 +1037,12 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:9" ht="30.75" customHeight="1">
+      <c r="B1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="5" t="e">
         <f>CONCATENATE("("&amp;WayBillList_MatName," )")</f>
         <v>#NAME?</v>
@@ -1052,20 +1052,20 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="e">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1">
+      <c r="B2" s="54" t="e">
         <f>CONCATENATE("за рецептом ",WayBillList_RecipeName)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="B3" s="8"/>
       <c r="C3" s="5"/>
       <c r="D3" s="15"/>
@@ -1075,12 +1075,12 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1">
+      <c r="B4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="47" t="e">
+      <c r="C4" s="58"/>
+      <c r="D4" s="61" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
@@ -1090,23 +1090,23 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="48"/>
+    <row r="5" spans="1:9" ht="21" customHeight="1">
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="32" t="e">
+      <c r="C6" s="34"/>
+      <c r="D6" s="52" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
@@ -1116,24 +1116,24 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
       <c r="A7"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="12.75" customHeight="1">
       <c r="A8"/>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="32" t="e">
+      <c r="C8" s="34"/>
+      <c r="D8" s="52" t="e">
         <f>IF(D6 &lt; WayBillList_WriteOnDate,WayBillList_WriteOnDate,"")</f>
         <v>#NAME?</v>
       </c>
@@ -1143,24 +1143,24 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1">
       <c r="A9"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="12.75" customHeight="1">
       <c r="A10"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="34" t="e">
+      <c r="C10" s="34"/>
+      <c r="D10" s="39" t="e">
         <f>WayBillList_FROMWH</f>
         <v>#NAME?</v>
       </c>
@@ -1170,24 +1170,24 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="12.75" customHeight="1">
       <c r="A11"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="12.75" customHeight="1">
       <c r="A12"/>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="34" t="e">
+      <c r="C12" s="34"/>
+      <c r="D12" s="39" t="e">
         <f>WayBillList_AmountIn</f>
         <v>#NAME?</v>
       </c>
@@ -1197,24 +1197,24 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="12.75" customHeight="1">
       <c r="A13"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="12.75" customHeight="1">
       <c r="A14"/>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="34" t="e">
+      <c r="C14" s="34"/>
+      <c r="D14" s="39" t="e">
         <f>WayBillList_AmountOut</f>
         <v>#NAME?</v>
       </c>
@@ -1223,23 +1223,23 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="12.75" customHeight="1">
       <c r="A15"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="12.75" customHeight="1">
       <c r="A16"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="55" t="e">
+      <c r="C16" s="34"/>
+      <c r="D16" s="37" t="e">
         <f>D14/D12</f>
         <v>#NAME?</v>
       </c>
@@ -1248,23 +1248,23 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="12.75" customHeight="1">
       <c r="A17"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="56"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="12.75" customHeight="1">
       <c r="A18"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="41" t="e">
+      <c r="C18" s="34"/>
+      <c r="D18" s="55" t="e">
         <f>WayBillList_SUMMALL</f>
         <v>#NAME?</v>
       </c>
@@ -1274,24 +1274,24 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="12.75" customHeight="1">
       <c r="A19"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="12.75" customHeight="1">
       <c r="A20"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="34" t="e">
+      <c r="C20" s="34"/>
+      <c r="D20" s="39" t="e">
         <f>WayBillList_DocStatus</f>
         <v>#NAME?</v>
       </c>
@@ -1301,18 +1301,18 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="12.75" customHeight="1">
       <c r="A21"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="12.75" customHeight="1">
       <c r="D22" s="9"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1320,7 +1320,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="12.75" customHeight="1">
       <c r="D23" s="9"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1328,54 +1328,54 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="13.5" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="28" t="s">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B25" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="49" t="s">
+      <c r="D25" s="49"/>
+      <c r="E25" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="49" t="s">
+      <c r="I25" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="50"/>
-    </row>
-    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" ht="13.5" customHeight="1">
       <c r="B27" s="10">
         <v>1</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="27">
         <v>2</v>
       </c>
-      <c r="D27" s="52"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="10">
         <v>3</v>
       </c>
@@ -1390,13 +1390,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="59" t="e">
+    <row r="28" spans="1:9" ht="13.5" customHeight="1">
+      <c r="B28" s="43" t="e">
         <f>MGRPD_GrpName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="21" t="e">
@@ -1409,17 +1409,17 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="12.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="11" t="e">
         <f>DeboningItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C29" s="61" t="e">
+      <c r="C29" s="45" t="e">
         <f>DeboningItems_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D29" s="62"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="11" t="e">
         <f>DeboningItems_MsrName</f>
         <v>#NAME?</v>
@@ -1441,28 +1441,28 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="12.75" customHeight="1">
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G31" s="53" t="s">
+    <row r="31" spans="1:9" ht="12.75" customHeight="1">
+      <c r="G31" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="54"/>
+      <c r="H31" s="32"/>
       <c r="I31" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="33" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="34" spans="2:9" ht="12.75" customHeight="1">
       <c r="C34" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="19" t="e">
-        <f>WayBillList_REASON</f>
+        <f>WayBillList_Notes</f>
         <v>#NAME?</v>
       </c>
       <c r="E34" s="16"/>
@@ -1471,7 +1471,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" ht="12.75" customHeight="1">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -1481,7 +1481,7 @@
       <c r="H35"/>
       <c r="I35"/>
     </row>
-    <row r="36" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" ht="12.75" customHeight="1">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -1491,7 +1491,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="12.75" customHeight="1">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -1501,7 +1501,7 @@
       <c r="H37"/>
       <c r="I37"/>
     </row>
-    <row r="38" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" ht="12.75" customHeight="1">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -1511,9 +1511,9 @@
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="40" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="41" spans="2:9" ht="12.75" customHeight="1">
       <c r="C41" s="1" t="s">
         <v>18</v>
       </c>
@@ -1524,8 +1524,8 @@
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="43" spans="2:9" ht="12.75" customHeight="1">
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
@@ -1536,10 +1536,25 @@
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="45" spans="2:9" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="I25:I26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G31:H31"/>
@@ -1556,21 +1571,6 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="I25:I26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
